--- a/product/扫码挪车/挪车产品设计-admin-陆陆畅版本.xlsx
+++ b/product/扫码挪车/挪车产品设计-admin-陆陆畅版本.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
   <si>
     <t>用户昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,14 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车主ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地理位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,30 +185,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实体物料ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>挪车码ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成/制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>批量生成/导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实体物料ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发货时记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,19 +205,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>折后价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存</t>
+    <t>实体卡才有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库批次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未印刷/已入库/已发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空码ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签收时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID（扫码人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID（车主）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小程序二维码来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫别人的码来记录码ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油站自提/快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油站自提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -327,6 +379,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,6 +397,1559 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>598289</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>696430</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="椭圆 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2345531" y="6718102"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396478</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>48220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>494619</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="椭圆 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2143720" y="6906220"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>498191</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>155886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2147292" y="7106245"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>598289</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>696430</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="椭圆 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F008086E-414B-4444-BB70-D17D42A6272C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343055" y="6780415"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396478</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>494619</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="椭圆 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6542FA2-D602-43A2-ADBF-F172D850F486}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141244" y="6970313"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>498191</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="椭圆 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88981BF3-F4E3-4081-A05D-C82AD8689D12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2144816" y="7172119"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>747833</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>845974</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>148743</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="椭圆 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37A1D524-A048-4133-9FCA-E892823BAF88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2492599" y="8126378"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396478</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>48220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>494619</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>146361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="椭圆 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7546C5-B166-4E84-B3AD-A38E97C8EC59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2141244" y="6970313"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>498191</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="椭圆 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C39DE9C-D13A-40F6-974D-22865AD9ADE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2144816" y="7172119"/>
+          <a:ext cx="98141" cy="98141"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="CACACA"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPct val="150000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,25 +2215,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P44"/>
+  <dimension ref="B2:R45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F34" activeCellId="1" sqref="C42:F44 F34"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" customWidth="1"/>
-    <col min="9" max="15" width="14.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="1" customWidth="1"/>
+    <col min="10" max="15" width="14.21875" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.77734375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.35">
@@ -658,7 +2268,9 @@
       <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -673,7 +2285,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -688,7 +2300,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -696,7 +2308,10 @@
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -704,6 +2319,9 @@
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="K7" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -777,13 +2395,13 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>1</v>
@@ -795,23 +2413,26 @@
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -821,9 +2442,10 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="L17" s="2"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -833,19 +2455,19 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="G19" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.35">
       <c r="H19" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -853,11 +2475,10 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="I20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="6"/>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -865,17 +2486,17 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
@@ -884,19 +2505,19 @@
         <v>12</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -906,7 +2527,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -916,56 +2537,62 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="L29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="Q29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -980,8 +2607,10 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -996,8 +2625,10 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.35">
       <c r="I32" s="1" t="s">
         <v>22</v>
       </c>
@@ -1005,21 +2636,21 @@
         <v>26</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="N33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1033,10 +2664,10 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B35" s="4"/>
       <c r="C35" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1049,92 +2680,110 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B36" s="4"/>
       <c r="C36" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="K36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B37" s="4"/>
-      <c r="C37" s="8"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B38" s="4"/>
-      <c r="C38" s="8"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+    </row>
+    <row r="39" spans="2:18" ht="30" x14ac:dyDescent="0.35">
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="J39" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1147,51 +2796,78 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="4"/>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="4"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4"/>
+      <c r="D43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="2">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="C45" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>